--- a/data/meta_data_2023.xlsx
+++ b/data/meta_data_2023.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10719"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10811"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lgorman/research/phd/chapter-6-analysis/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C980A03B-6D20-7B4F-A8DA-73F77AF7C36C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD9E490B-9322-DB4E-88E9-B3829C38B99E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-4260" yWindow="-21600" windowWidth="38400" windowHeight="21600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-4260" yWindow="-21100" windowWidth="38400" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="project_metadata" sheetId="1" r:id="rId1"/>
@@ -51,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2363" uniqueCount="1006">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2373" uniqueCount="1010">
   <si>
     <t>ID</t>
   </si>
@@ -3087,6 +3087,18 @@
   </si>
   <si>
     <t>Purposive Sampling</t>
+  </si>
+  <si>
+    <t>ET_LCS_2022</t>
+  </si>
+  <si>
+    <t>LCS</t>
+  </si>
+  <si>
+    <t>LCSR</t>
+  </si>
+  <si>
+    <t>KE_LCS_2022</t>
   </si>
 </sst>
 </file>
@@ -4028,11 +4040,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AH119"/>
+  <dimension ref="A1:AH121"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E48" sqref="E48"/>
+      <pane ySplit="2" topLeftCell="A83" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B121" sqref="B121"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -13180,6 +13192,46 @@
       </c>
       <c r="J119" s="6" t="s">
         <v>997</v>
+      </c>
+    </row>
+    <row r="120" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="B120" s="6" t="s">
+        <v>1006</v>
+      </c>
+      <c r="C120" s="6" t="s">
+        <v>1007</v>
+      </c>
+      <c r="D120" t="s">
+        <v>131</v>
+      </c>
+      <c r="E120" s="7">
+        <v>2022</v>
+      </c>
+      <c r="F120" s="6" t="s">
+        <v>1008</v>
+      </c>
+      <c r="H120" s="6" t="s">
+        <v>1008</v>
+      </c>
+    </row>
+    <row r="121" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="B121" s="6" t="s">
+        <v>1009</v>
+      </c>
+      <c r="C121" s="6" t="s">
+        <v>1007</v>
+      </c>
+      <c r="D121" t="s">
+        <v>144</v>
+      </c>
+      <c r="E121" s="7">
+        <v>2022</v>
+      </c>
+      <c r="F121" s="6" t="s">
+        <v>1008</v>
+      </c>
+      <c r="H121" s="6" t="s">
+        <v>1008</v>
       </c>
     </row>
   </sheetData>
